--- a/results/mp/tinybert/dilemma/confidence/84/stop-words-topk-0.5/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/84/stop-words-topk-0.5/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="60">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,72 +40,81 @@
     <t>name</t>
   </si>
   <si>
+    <t>worst</t>
+  </si>
+  <si>
+    <t>evil</t>
+  </si>
+  <si>
+    <t>illegal</t>
+  </si>
+  <si>
+    <t>creepy</t>
+  </si>
+  <si>
+    <t>terrifying</t>
+  </si>
+  <si>
+    <t>uncomfortable</t>
+  </si>
+  <si>
+    <t>addicted</t>
+  </si>
+  <si>
+    <t>stupid</t>
+  </si>
+  <si>
+    <t>weird</t>
+  </si>
+  <si>
+    <t>disturbing</t>
+  </si>
+  <si>
+    <t>scary</t>
+  </si>
+  <si>
+    <t>shocking</t>
+  </si>
+  <si>
+    <t>behind</t>
+  </si>
+  <si>
+    <t>seriously</t>
+  </si>
+  <si>
+    <t>hate</t>
+  </si>
+  <si>
+    <t>dangerous</t>
+  </si>
+  <si>
+    <t>crazy</t>
+  </si>
+  <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>wrong</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>bad</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>dark</t>
+  </si>
+  <si>
+    <t>fake</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
-    <t>creepy</t>
-  </si>
-  <si>
-    <t>worst</t>
-  </si>
-  <si>
-    <t>illegal</t>
-  </si>
-  <si>
-    <t>uncomfortable</t>
-  </si>
-  <si>
-    <t>terrifying</t>
-  </si>
-  <si>
-    <t>dangerous</t>
-  </si>
-  <si>
-    <t>wrong</t>
-  </si>
-  <si>
-    <t>addicted</t>
-  </si>
-  <si>
-    <t>evil</t>
-  </si>
-  <si>
-    <t>disturbing</t>
-  </si>
-  <si>
-    <t>hate</t>
-  </si>
-  <si>
-    <t>seriously</t>
-  </si>
-  <si>
-    <t>scary</t>
-  </si>
-  <si>
-    <t>fucked</t>
-  </si>
-  <si>
-    <t>crazy</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>bad</t>
-  </si>
-  <si>
-    <t>behind</t>
-  </si>
-  <si>
-    <t>dark</t>
-  </si>
-  <si>
-    <t>fake</t>
-  </si>
-  <si>
     <t>amazing</t>
   </si>
   <si>
@@ -121,61 +130,61 @@
     <t>interesting</t>
   </si>
   <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>powerful</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
     <t>good</t>
   </si>
   <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>powerful</t>
-  </si>
-  <si>
-    <t>better</t>
+    <t>love</t>
+  </si>
+  <si>
+    <t>worth</t>
   </si>
   <si>
     <t>first</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>many</t>
+    <t>new</t>
   </si>
   <si>
     <t>wow</t>
   </si>
   <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>right</t>
+    <t>highly</t>
   </si>
   <si>
     <t>true</t>
   </si>
   <si>
+    <t>much</t>
+  </si>
+  <si>
     <t>social</t>
   </si>
   <si>
-    <t>really</t>
-  </si>
-  <si>
     <t>documentary</t>
   </si>
   <si>
+    <t>dilemma</t>
+  </si>
+  <si>
     <t>netflix</t>
   </si>
   <si>
-    <t>dilemma</t>
-  </si>
-  <si>
     <t>media</t>
   </si>
   <si>
+    <t>watch</t>
+  </si>
+  <si>
     <t>watching</t>
-  </si>
-  <si>
-    <t>watch</t>
   </si>
   <si>
     <t>…</t>
@@ -550,10 +559,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="J1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -611,13 +620,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.9666666666666667</v>
       </c>
       <c r="C3">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="D3">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -629,10 +638,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -661,13 +670,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="C4">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D4">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -679,10 +688,10 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="K4">
         <v>0.9090909090909091</v>
@@ -711,13 +720,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9666666666666667</v>
+        <v>0.9134615384615384</v>
       </c>
       <c r="C5">
-        <v>29</v>
+        <v>95</v>
       </c>
       <c r="D5">
-        <v>29</v>
+        <v>95</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -729,19 +738,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="K5">
-        <v>0.82</v>
+        <v>0.84</v>
       </c>
       <c r="L5">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M5">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -753,7 +762,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -761,13 +770,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9038461538461539</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="C6">
-        <v>94</v>
+        <v>10</v>
       </c>
       <c r="D6">
-        <v>94</v>
+        <v>10</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -779,19 +788,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="K6">
-        <v>0.8</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="L6">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M6">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -803,7 +812,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -811,13 +820,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8666666666666667</v>
+        <v>0.8787878787878788</v>
       </c>
       <c r="C7">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="D7">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -829,19 +838,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="K7">
-        <v>0.7368421052631579</v>
+        <v>0.7017543859649122</v>
       </c>
       <c r="L7">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M7">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -853,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -861,13 +870,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8484848484848485</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C8">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="D8">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -879,19 +888,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K8">
-        <v>0.72</v>
+        <v>0.5862068965517241</v>
       </c>
       <c r="L8">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="M8">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -903,7 +912,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -911,13 +920,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7894736842105263</v>
+        <v>0.775</v>
       </c>
       <c r="C9">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="D9">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -929,19 +938,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K9">
-        <v>0.5833333333333334</v>
+        <v>0.5789473684210527</v>
       </c>
       <c r="L9">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="M9">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -953,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>25</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -961,13 +970,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7647058823529411</v>
+        <v>0.75</v>
       </c>
       <c r="C10">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D10">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -979,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="K10">
-        <v>0.5789473684210527</v>
+        <v>0.55</v>
       </c>
       <c r="L10">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="M10">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1003,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>8</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1011,13 +1020,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.7</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="C11">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D11">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1029,19 +1038,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="K11">
-        <v>0.5172413793103449</v>
+        <v>0.52</v>
       </c>
       <c r="L11">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="M11">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1053,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>14</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1061,13 +1070,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6923076923076923</v>
+        <v>0.6875</v>
       </c>
       <c r="C12">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D12">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1079,19 +1088,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="K12">
-        <v>0.3636363636363636</v>
+        <v>0.4814814814814815</v>
       </c>
       <c r="L12">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M12">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1103,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1111,38 +1120,38 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6875</v>
+        <v>0.644927536231884</v>
       </c>
       <c r="C13">
+        <v>89</v>
+      </c>
+      <c r="D13">
+        <v>89</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>49</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K13">
+        <v>0.3055555555555556</v>
+      </c>
+      <c r="L13">
         <v>11</v>
       </c>
-      <c r="D13">
+      <c r="M13">
         <v>11</v>
       </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>5</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="K13">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="L13">
-        <v>9</v>
-      </c>
-      <c r="M13">
-        <v>9</v>
-      </c>
       <c r="N13">
         <v>1</v>
       </c>
@@ -1153,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1161,13 +1170,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.65</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="C14">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D14">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1179,19 +1188,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="K14">
-        <v>0.2926829268292683</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="L14">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="M14">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1203,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1211,13 +1220,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.6428571428571429</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="C15">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D15">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1232,16 +1241,16 @@
         <v>10</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="K15">
-        <v>0.25</v>
+        <v>0.2372881355932203</v>
       </c>
       <c r="L15">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M15">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1253,7 +1262,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>36</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1261,13 +1270,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.6159420289855072</v>
+        <v>0.6071428571428571</v>
       </c>
       <c r="C16">
-        <v>85</v>
+        <v>17</v>
       </c>
       <c r="D16">
-        <v>85</v>
+        <v>17</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1279,19 +1288,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="K16">
-        <v>0.1864406779661017</v>
+        <v>0.2083333333333333</v>
       </c>
       <c r="L16">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M16">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1303,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>48</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1311,13 +1320,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5882352941176471</v>
+        <v>0.6</v>
       </c>
       <c r="C17">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D17">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1329,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K17">
-        <v>0.1851851851851852</v>
+        <v>0.180327868852459</v>
       </c>
       <c r="L17">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M17">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1353,7 +1362,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>44</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1361,13 +1370,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5428571428571428</v>
+        <v>0.5789473684210527</v>
       </c>
       <c r="C18">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D18">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1379,10 +1388,10 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K18">
         <v>0.1690140845070423</v>
@@ -1411,13 +1420,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.5</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="C19">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D19">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1429,19 +1438,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="K19">
-        <v>0.1520947176684882</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="L19">
-        <v>167</v>
+        <v>10</v>
       </c>
       <c r="M19">
-        <v>167</v>
+        <v>10</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1453,7 +1462,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>931</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1461,13 +1470,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.4468085106382979</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="C20">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D20">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1479,19 +1488,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="K20">
-        <v>0.1052631578947368</v>
+        <v>0.1302367941712204</v>
       </c>
       <c r="L20">
-        <v>10</v>
+        <v>143</v>
       </c>
       <c r="M20">
-        <v>10</v>
+        <v>143</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1503,7 +1512,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>85</v>
+        <v>955</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1511,13 +1520,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.3846153846153846</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="C21">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D21">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1529,28 +1538,28 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="K21">
-        <v>0.07801418439716312</v>
+        <v>0.0812720848056537</v>
       </c>
       <c r="L21">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M21">
         <v>23</v>
       </c>
       <c r="N21">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O21">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q21">
         <v>260</v>
@@ -1561,13 +1570,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.3461538461538461</v>
+        <v>0.4893617021276596</v>
       </c>
       <c r="C22">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D22">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1579,19 +1588,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="K22">
-        <v>0.06666666666666667</v>
+        <v>0.06984126984126984</v>
       </c>
       <c r="L22">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="M22">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1603,7 +1612,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>504</v>
+        <v>293</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1611,13 +1620,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.3214285714285715</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="C23">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D23">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1629,19 +1638,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="K23">
-        <v>0.06349206349206349</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="L23">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="M23">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1653,7 +1662,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>295</v>
+        <v>504</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1661,13 +1670,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.1794871794871795</v>
+        <v>0.375</v>
       </c>
       <c r="C24">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D24">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1679,19 +1688,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>64</v>
+        <v>15</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="K24">
-        <v>0.05421686746987952</v>
+        <v>0.05271084337349398</v>
       </c>
       <c r="L24">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M24">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1703,111 +1712,159 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="25" spans="1:17">
+      <c r="A25" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25">
+        <v>0.3571428571428572</v>
+      </c>
+      <c r="C25">
+        <v>10</v>
+      </c>
+      <c r="D25">
+        <v>10</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25" t="b">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>18</v>
+      </c>
       <c r="J25" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="K25">
+        <v>0.04545454545454546</v>
+      </c>
+      <c r="L25">
+        <v>28</v>
+      </c>
+      <c r="M25">
+        <v>28</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
+      <c r="A26" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26">
+        <v>0.2051282051282051</v>
+      </c>
+      <c r="C26">
+        <v>16</v>
+      </c>
+      <c r="D26">
+        <v>16</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26" t="b">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>62</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K26">
         <v>0.02932551319648094</v>
       </c>
-      <c r="L25">
+      <c r="L26">
         <v>10</v>
       </c>
-      <c r="M25">
+      <c r="M26">
         <v>10</v>
       </c>
-      <c r="N25">
-        <v>1</v>
-      </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-      <c r="P25" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q25">
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q26">
         <v>331</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17">
-      <c r="J26" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="K26">
-        <v>0.02922077922077922</v>
-      </c>
-      <c r="L26">
-        <v>18</v>
-      </c>
-      <c r="M26">
-        <v>18</v>
-      </c>
-      <c r="N26">
-        <v>1</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>598</v>
       </c>
     </row>
     <row r="27" spans="1:17">
       <c r="J27" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="K27">
-        <v>0.02768166089965398</v>
+        <v>0.02476958525345622</v>
       </c>
       <c r="L27">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="M27">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="N27">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O27">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q27">
-        <v>1686</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="28" spans="1:17">
       <c r="J28" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="K28">
-        <v>0.01280409731113956</v>
+        <v>0.02179487179487179</v>
       </c>
       <c r="L28">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="M28">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="N28">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O28">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q28">
-        <v>771</v>
+        <v>763</v>
       </c>
     </row>
   </sheetData>
